--- a/Tree Map R/treemap.xlsx
+++ b/Tree Map R/treemap.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzo\Desktop\MENA\CEE-MENA\Tree Map R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334EFB12-2AC8-424C-89D0-E0EA480CAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE1DD1-E0F3-4B48-B466-89104A172A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="302">
   <si>
     <t>Yıl</t>
   </si>
@@ -642,13 +643,310 @@
   </si>
   <si>
     <t>Pil Asamlarları    %0.12</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>2 Basamaklı HS Kodu</t>
+  </si>
+  <si>
+    <t>Ticaret Hacmindeki Oranı</t>
+  </si>
+  <si>
+    <t>Sektör adı</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Live animals (01 HS92)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Meat (02 HS92)</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Fish (03 HS92)</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Diary products (04 HS92)</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Plants (06 HS92)</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Vegetables (07 HS92)</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Fruits and nuts (08 HS92)</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Coffee, tea and spices (09 HS92)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cereals (10 HS92)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Oil seeds and oleaginous fruits (12 HS92)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lac and other vegetable extracts (13 HS92)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Animal or vegetable fats, oils or waxes (15 HS92)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Preparations of meat or fish (16 HS92)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Sugar and candy (17 HS92)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Preparations of vegetables, fruit, or nuts (20 HS92)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Beverages (22 HS92)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Tobacco (24 HS92)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Salt, sulphur, lime, cement, etc. (25 HS92)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Inorganic chemicals (28 HS92)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Organic chemicals (29 HS92)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Pharmaceutical products (30 HS92)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Fertilisers (31 HS92)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Photographic or cinematographic goods (37 HS92)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Miscellaneous chemical products (38 HS92)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Plastics (39 HS92)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Rubber (40 HS92)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Wood (44 HS92)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Paper and paperboard (48 HS92)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Man-made filaments (54 HS92)</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Man-made staple fibres (55 HS92)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Carpets (57 HS92)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Special woven fabrics (58 HS92)</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Knitted fabrics (60 HS92)</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Other made up textile articles (63 HS92)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Footwear (64 HS92)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Headgear (65 HS92)</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Ceramic products (69 HS92)</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Articles of iron or steel (73 HS92)</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Copper (74 HS92)</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Aluminium (76 HS92)</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Industrial Machinery (84 HS92)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Electrical machinery and equipment (85 HS92)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Vehicles (87 HS92)</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Apparatuses (optical, medical, etc.) (90 HS92)</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Clocks (91 HS92)</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Arms and ammunition (93 HS92)</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Furniture (94 HS92)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +961,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -711,12 +1014,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1025,13 +1331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC45636-77DD-48D9-9913-A585BF2D46B0}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="88.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="88.42578125" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -5605,4 +5912,835 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929DF0A-1269-465F-8666-D48E0782606E}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2012</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5">
+        <v>2.7007760208168471E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6">
+        <v>8.8620820067963676E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7">
+        <v>8.1187604951322451E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>7.1469385698415457E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9">
+        <v>8.7061438261236445E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10">
+        <v>1.435575807070578E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>2.7877315288109982E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14">
+        <v>4.1515837175421541E-4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18">
+        <v>2.7806695110052702E-6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25">
+        <v>0.93077597712502602</v>
+      </c>
+      <c r="E25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28">
+        <v>1.3083712113449081E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33">
+        <v>1.6375053787031031E-5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35">
+        <v>3.9229508910817209E-4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36">
+        <v>0.53199190881844993</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37">
+        <v>5.5511697163702932E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41">
+        <v>1.081371476502049E-4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43">
+        <v>2.6808743718880809E-3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44">
+        <v>1.359438427602577E-5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2012</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45">
+        <v>5.7820270784395314E-6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2012</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2012</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2012</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>